--- a/biology/Histoire de la zoologie et de la botanique/Rolando_Teruel/Rolando_Teruel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rolando_Teruel/Rolando_Teruel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rolando Teruel , né en 1974 et mort en août 2023[1], est un arachnologiste cubain, spécialiste des arachnides néotropicaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rolando Teruel , né en 1974 et mort en août 2023, est un arachnologiste cubain, spécialiste des arachnides néotropicaux.
 Il travaille au Centro Oriental de Ecosistemas y Biodiversidad (BIOECO) du Museo de Historia Natural Tomás Romay à Santiago de Cuba.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Espèces nommées en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anolis terueli Navarro, Fernandez &amp; Garrido 2001[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Anolis terueli Navarro, Fernandez &amp; Garrido 2001
 Rowlandius terueli Armas, 2002
 Ananteris terueli Kovařík, 2006
 Cubanops terueli Sánchez-Ruiz, Platnick &amp; Dupérré, 2010</t>
@@ -545,7 +559,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ammotrecha enriquei Armas &amp; Teruel, 2005
